--- a/spliced/walkingToRunning/2023-03-30_14-27-51/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-27-51/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-7.558236122131348</v>
+        <v>2.669549942016602</v>
       </c>
       <c r="B2" t="n">
-        <v>-11.54725742340088</v>
+        <v>-27.01569938659668</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.366233348846436</v>
+        <v>1.220865488052368</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-7.292168617248535</v>
+        <v>-9.358198165893556</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.43182897567749</v>
+        <v>-20.71603393554688</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.859290599822998</v>
+        <v>-7.516577243804932</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-6.19073486328125</v>
+        <v>-13.51923274993896</v>
       </c>
       <c r="B4" t="n">
-        <v>-5.0089111328125</v>
+        <v>-8.136168479919434</v>
       </c>
       <c r="C4" t="n">
-        <v>-5.00853443145752</v>
+        <v>-7.273739814758301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-16.53120613098145</v>
+        <v>-7.558236122131348</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.607099056243896</v>
+        <v>-11.54725742340088</v>
       </c>
       <c r="C5" t="n">
-        <v>0.276792049407959</v>
+        <v>-2.366233348846436</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-4.55709171295166</v>
+        <v>-7.292168617248535</v>
       </c>
       <c r="B6" t="n">
-        <v>-19.43513488769531</v>
+        <v>-5.43182897567749</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.060164451599121</v>
+        <v>-1.859290599822998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.290600776672363</v>
+        <v>-6.19073486328125</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.404523849487305</v>
+        <v>-5.0089111328125</v>
       </c>
       <c r="C7" t="n">
-        <v>9.77668571472168</v>
+        <v>-5.00853443145752</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.725464344024658</v>
+        <v>-16.53120613098145</v>
       </c>
       <c r="B8" t="n">
-        <v>-15.71722602844238</v>
+        <v>-4.607099056243896</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.773126602172852</v>
+        <v>0.276792049407959</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.2208814620971679</v>
+        <v>-4.55709171295166</v>
       </c>
       <c r="B9" t="n">
-        <v>-29.22537994384766</v>
+        <v>-19.43513488769531</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.326999664306641</v>
+        <v>-7.060164451599121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-30.18045997619629</v>
+        <v>-1.290600776672363</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.106259346008301</v>
+        <v>-3.404523849487305</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.336086273193359</v>
+        <v>9.77668571472168</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-28.01585388183594</v>
+        <v>-2.725464344024658</v>
       </c>
       <c r="B11" t="n">
-        <v>-10.60748767852783</v>
+        <v>-15.71722602844238</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.628327369689941</v>
+        <v>-1.773126602172852</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.033831596374512</v>
+        <v>-0.2208814620971679</v>
       </c>
       <c r="B12" t="n">
-        <v>-20.5565071105957</v>
+        <v>-29.22537994384766</v>
       </c>
       <c r="C12" t="n">
-        <v>-19.63080787658692</v>
+        <v>-4.326999664306641</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>46.15228271484375</v>
+        <v>-30.18045997619629</v>
       </c>
       <c r="B13" t="n">
-        <v>6.39080286026001</v>
+        <v>-3.106259346008301</v>
       </c>
       <c r="C13" t="n">
-        <v>16.86857604980469</v>
+        <v>-5.336086273193359</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-12.0808572769165</v>
+        <v>-28.01585388183594</v>
       </c>
       <c r="B14" t="n">
-        <v>1.62255322933197</v>
+        <v>-10.60748767852783</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.056400775909424</v>
+        <v>-5.628327369689941</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-11.0537633895874</v>
+        <v>3.033831596374512</v>
       </c>
       <c r="B15" t="n">
-        <v>-42.16847610473633</v>
+        <v>-20.5565071105957</v>
       </c>
       <c r="C15" t="n">
-        <v>6.546759128570557</v>
+        <v>-19.63080787658692</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.753406047821045</v>
+        <v>46.15228271484375</v>
       </c>
       <c r="B16" t="n">
-        <v>1.232700347900391</v>
+        <v>6.39080286026001</v>
       </c>
       <c r="C16" t="n">
-        <v>-26.96573448181152</v>
+        <v>16.86857604980469</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-24.26501083374023</v>
+        <v>-12.0808572769165</v>
       </c>
       <c r="B17" t="n">
-        <v>-16.1025276184082</v>
+        <v>1.62255322933197</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0206184387207031</v>
+        <v>-1.056400775909424</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.58524227142334</v>
+        <v>-11.0537633895874</v>
       </c>
       <c r="B18" t="n">
-        <v>-32.96889877319336</v>
+        <v>-42.16847610473633</v>
       </c>
       <c r="C18" t="n">
-        <v>19.44017219543457</v>
+        <v>6.546759128570557</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8.066184997558594</v>
+        <v>-1.753406047821045</v>
       </c>
       <c r="B19" t="n">
-        <v>4.324060440063477</v>
+        <v>1.232700347900391</v>
       </c>
       <c r="C19" t="n">
-        <v>3.93980073928833</v>
+        <v>-26.96573448181152</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.809474468231201</v>
+        <v>-24.26501083374023</v>
       </c>
       <c r="B20" t="n">
-        <v>-5.948239803314209</v>
+        <v>-16.1025276184082</v>
       </c>
       <c r="C20" t="n">
-        <v>5.694517135620117</v>
+        <v>0.0206184387207031</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>6.58524227142334</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-32.96889877319336</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19.44017219543457</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8.066184997558594</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4.324060440063477</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.93980073928833</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6.809474468231201</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-5.948239803314209</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.694517135620117</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>-36.60982131958008</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>-23.81085586547852</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>-32.70140838623047</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23.85481452941895</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.3514032363891601</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-14.82476615905762</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-12.4519100189209</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-15.55856132507324</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-9.169242858886721</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>23.85086059570312</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-22.51275253295898</v>
+      </c>
+      <c r="C27" t="n">
+        <v>13.36398124694824</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-5.659902095794678</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5.291859149932861</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-6.011741161346436</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>32.19543075561523</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-80.94894409179688</v>
+      </c>
+      <c r="C29" t="n">
+        <v>22.37196731567383</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-18.56385040283203</v>
+      </c>
+      <c r="B30" t="n">
+        <v>7.148910522460938</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-19.82358169555664</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-14.20774078369141</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-7.775349617004394</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-14.13762283325195</v>
       </c>
     </row>
   </sheetData>
